--- a/public/Sample_assessments_fill_in_the_blanks.xlsx
+++ b/public/Sample_assessments_fill_in_the_blanks.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Easy</t>
   </si>
@@ -99,12 +104,15 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>question_type_four</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -142,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +170,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,6 +185,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -485,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,25 +510,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.125" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.09765625" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" customWidth="1"/>
+    <col min="8" max="8" width="24.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8984375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -536,8 +554,11 @@
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -562,8 +583,11 @@
       <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="I2" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -588,8 +612,11 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="I3" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -613,6 +640,9 @@
       </c>
       <c r="H4" s="10" t="s">
         <v>11</v>
+      </c>
+      <c r="I4" s="12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/Sample_assessments_fill_in_the_blanks.xlsx
+++ b/public/Sample_assessments_fill_in_the_blanks.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Easy</t>
   </si>
@@ -104,15 +99,12 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>question_type_four</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -150,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,12 +162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,9 +171,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,26 +493,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.09765625" customWidth="1"/>
-    <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.125" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" customWidth="1"/>
-    <col min="8" max="8" width="24.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
+    <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -554,11 +536,8 @@
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -583,11 +562,8 @@
       <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="12">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -612,11 +588,8 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="12">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -640,9 +613,6 @@
       </c>
       <c r="H4" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="I4" s="12">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
